--- a/data/angle_data/gripper_data_rod.xlsx
+++ b/data/angle_data/gripper_data_rod.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eric\Projects\Multimodal_Intervention_Robot\gripper_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssr\EJC\VAIR\data\angle_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3D966-EB6D-4ABE-B531-CE72933E1373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2B434D-4868-4713-9007-2B74A2C06EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BE3B26CE-4D91-490D-9257-9E1796DC62C6}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24630" windowHeight="13770" xr2:uid="{BE3B26CE-4D91-490D-9257-9E1796DC62C6}"/>
   </bookViews>
   <sheets>
     <sheet name="gripper_data_rod" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -99,7 +99,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -107,7 +107,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Aptos Display"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -116,7 +116,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -125,7 +125,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -134,7 +134,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,7 +142,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -150,7 +150,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -158,7 +158,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -166,7 +166,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -175,7 +175,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,7 +184,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -192,7 +192,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -201,7 +201,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,7 +209,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -218,7 +218,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,7 +227,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -235,14 +235,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -679,48 +679,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,7 +736,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1055,27 +1055,27 @@
   <dimension ref="A1:N635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <pane ySplit="1" topLeftCell="A605" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q626" sqref="Q626"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>-0.26107641557717898</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>7.892358442282088E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>2.7289235844228203</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>2.8189235844228202</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>3.53892358442282</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>-0.24419919353594821</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>1.3758008064640492</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>1.4858008064640487</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>2.6658008064640484</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>5.9858008064640487</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>-0.1502562576964408</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0.29974374230354783</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>1.2497437423035507</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>4.7397437423035598</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>1.8765445487676118</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>2.3865445487676027</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>3.6765445487675947</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>3.6865445487676141</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>3.8665445487675925</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>7.1781455047366549E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>1.0217814550473658</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>1.2217814550473669</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>1.4017814550473666</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>2.5817814550473663</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>-1.7513413229114008</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>2.0386586770885984</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>2.1986586770886021</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>3.8286586770886046</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>4.6986586770886021</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>-1.8545405164473436</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>5.4594835526557972E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>0.96545948355266376</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>1.1654594835526524</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>2.3154594835526581</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>3.805459483552653</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>1.0451181606412092</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>1.395118160641232</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>2.1351181606412126</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>2.725118160641216</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>2.8551181606412115</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>-0.6060361739283362</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>-2.6036173928336126E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>2.5539638260716648</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>2.6239638260716642</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>3.4539638260716643</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>0.8021714119398311</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0.96217141193982769</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>3.0521714119398311</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>3.4321714119398266</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>4.532171411939828</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>-2.4489908539672882</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>-1.9589908539672791</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>0.14100914603271519</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>5.0610091460327169</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>0.69418055797251554</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>1.784180557972519</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>2.4641805579725258</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>3.1441805579725326</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>3.2141805579725258</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>1.8297503918601521E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>1.0182975039186015</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>1.0682975039186022</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>1.2682975039186015</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>2.6782975039186017</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>1.9065050897867692</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>2.326505089786771</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>2.5365050897867718</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>2.6565050897867692</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>4.2065050897867735</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>-1.2403234982733977</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>-0.86032349827340227</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>8.9676501726600577E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>0.28967650172660342</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>1.719676501726596</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>5.3396765017266006</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>0.14718159151334476</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>0.17718159151334589</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>1.167181591513355</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>1.9471815915133561</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>2.1171815915133436</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>-3.5362070751377246</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>2.3937929248622751</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>5.2358806526378032E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>1.1923588065263786</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>-8.8729986448056906</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>-1.0929986448056894</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>-0.92299864480568772</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>0.87700135519430944</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>1.037001355194306</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>-3.2696398382792893</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>-2.6896398382793052</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>-2.1996398382792961</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>-2.1296398382793029</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>0.96036016172070049</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>0.7225091827207315</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>0.782509182720732</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>0.85250918272073051</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>0.96250918272073172</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>1.5125091827207315</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>1.9425091827207313</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>-0.12892493561516005</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>0.13107506438483796</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>0.32107506438483568</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>1.5510750643848397</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>1.7510750643848354</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>1.9010750643848411</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>2.2910750643848345</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>-3.3955661290887775</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>-3.3555661290887713</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>-2.3855661290887724</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>-1.9455661290887747</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>-0.68556612908876957</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>0.64443387091122872</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>0.954433870911231</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>1.2844338709112293</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>1.2944338709112344</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>-3.0534910647039624</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>-3.0134910647039703</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>-3.003491064703951</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>-1.6834910647039578</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>2.4365089352960467</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>-3.8976070592298093</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>0.82239294077019132</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>-12.871050646076277</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>-10.82105064607628</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>2.8989493539237188</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>-20.116973740335695</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>-16.736973740335699</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>-5.676973740335697</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>-4.4669737403357033</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>-3.8669737403356947</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>-3.4569737403356982</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>-2.3469737403356987</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>-1.3569737403357038</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>-8.2770243864119948</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>-5.8270243864119919</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>-0.93173461104666622</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>-0.74173461104666671</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>0.50826538895333417</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>0.52826538895333375</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0.558265388953334</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>0.61826538895333361</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>0.6782653889533341</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>0.6782653889533341</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>0.7482653889533335</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>0.78826538895333353</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>0.81826538895333378</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>1.2582653889533342</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>1.5482653889533342</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1.7582653889533342</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>-2.1451781978931379</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>-1.7651781978931353</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>-1.6051781978931388</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>-0.89517819789313791</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>-0.8051781978931345</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>-0.44517819789313506</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>-0.19517819789313506</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>0.34482180210686408</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>0.38482180210686323</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>0.96482180210686153</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>1.4148218021068644</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>1.5848218021068661</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>2.074821802106861</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>2.2448218021068627</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>-6.5452288439694115</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>-6.3052288439694166</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>-5.5152288439694104</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>-5.4552288439694081</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>-5.1952288439694172</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>-5.0852288439694178</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>-4.3352288439694178</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>-4.2852288439694064</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>-4.1552288439694109</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>-3.7052288439694081</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>-2.9952288439694144</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>-2.9552288439694081</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>-2.4852288439694092</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>-1.7852288439694064</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>-8.5794070418625665</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>-7.0794070418625665</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>-6.2094070418625762</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>-6.0294070418625694</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>-5.9194070418625699</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>-4.9194070418625699</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>-0.81393428620172337</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>2.0760657137982763</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>3</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>2.0960657137982768</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>3</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>2.176065713798276</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>2.2260657137982767</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>3</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>0.6081764218840604</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>3</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>0.75817642188405898</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>3</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>1.3181764218840613</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>3</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>1.7381764218840559</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>3</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>2.3081764218840561</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>3</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>1.597352843768121</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>3</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>1.9573528437681205</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>3</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>3.627352843768108</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>3</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>4.9973528437681125</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>3</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>0.75652926565217626</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>3</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>3.7165292656521558</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>3.7565292656521763</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>3.8265292656521694</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>3</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>3.8365292656521603</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>3.8765292656521524</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>-0.78869570578536141</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>1.0513042942146384</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>1.7013042942146388</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>3</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>2.1013042942146383</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>2.1513042942146381</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>3</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>0.58913074354950368</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>3</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>1.0491307435495045</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>3</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>1.3291307435495057</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>1.5791307435495057</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>3</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>2.6691307435495091</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>1.0445000675153722</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>1.994500067515375</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>3</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>3.1445000675153807</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>3</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>3.4145000675153767</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>3.6245000675153847</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>3</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>4.1645000675153767</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>3</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>1.8046308110648681</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>3</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>2.8046308110648681</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>3</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>3.7046308110648738</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>3</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>4.1446308110648715</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>5.1746308110648727</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>-0.92036985177527164</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>3</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>2.0596301482247288</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>3</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>2.0596301482247288</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>2.089630148224729</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>3</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>2.089630148224729</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>-1.6275558937699941E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>3</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>0.61372444106230262</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>3</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>0.77372444106229921</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>3</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>1.2737244410622992</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>3</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>1.3337244410623015</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>3</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>-0.97155111787540704</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>1.528448882124593</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>3</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>2.1284488821246015</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>3</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>2.6684488821245935</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>3</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>3.2984488821246032</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>3</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>-0.12682667681315252</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>0.89317332318685771</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>3</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>1.243173323186852</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>3</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>3.4531733231868316</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>3</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>4.4131733231868395</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>-0.96414739987731579</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>3</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>1.6058526001226845</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>3</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>1.835852600122684</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>1.8658526001226834</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>3</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>2.085852600122684</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>3</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>-0.69138575134587654</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>3</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>0.39861424865412687</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>3</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>0.99861424865412829</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>3</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>0.99861424865412829</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>3</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>1.4986142486541283</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>3</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>-0.32554905079381058</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>3</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>-3.5549050793804327E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>3</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>0.61445094920620136</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>3</v>
       </c>
@@ -14069,7 +14069,7 @@
         <v>2.8044509492061991</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>3</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>3.1044509492061962</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>3</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>0.95406519786030231</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>3</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>1.7440651978602943</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>3</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>2.0240651978602955</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>3</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>3.2940651978603057</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>3</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>3.5040651978603137</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>3</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>-1.384923332996177</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>3</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>1.6250766670038237</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>3</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>1.6550766670038239</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>3</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>1.6750766670038235</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>3</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>1.6750766670038235</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>3</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>1.7150766670038236</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>3</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>-1.2582270844356103</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>3</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>-1.168227084435614</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>3</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>-0.60822708443561169</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>3</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>-0.26822708443560828</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>3</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>-0.18822708443560998</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>3</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>0.39177291556438831</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>3</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>0.60177291556438917</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>3</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>0.73177291556439172</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>3</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>-3.51545416887123</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>3</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>-2.2354541688712288</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>3</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>-0.43545416887123167</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>3</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>0.83454583112877856</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>3</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>-5.562681253306863</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>-4.5726812533068824</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>3</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>-0.60268125330685507</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>3</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>-0.24268125330686985</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>3</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>-1.2657791610905402</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>3</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>1.2842208389094587</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>3</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>1.5142208389094591</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>3</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>1.604220838909459</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>3</v>
       </c>
@@ -15719,7 +15719,7 @@
         <v>1.6242208389094595</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>3</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>2.4642208389094593</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>3</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>-1.921650396813078</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>3</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>-1.2216503968130752</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>3</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>-1.0316503968130775</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>3</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>-0.97165039681307519</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>3</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>-0.80165039681308059</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>3</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>-0.30165039681308059</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>3</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>0.19834960318691941</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>3</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>0.58834960318691998</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>3</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>-5.2031566217205096</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>3</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>-2.1831566217204994</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>3</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>-1.1431566217205074</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>3</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>-0.48315662172051077</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>3</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>-3.67380701853358</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>3</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>-1.1538070185335982</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>3</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>-1.6434795074129482</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>3</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>-9.1541152660859808</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>3</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>-1.5341152660859763</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>3</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>-0.80411526608597939</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>3</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>-17.557230532171957</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>3</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>-5.3072305321719568</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>3</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>-1.9872305321719637</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>3</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>-7.0603457982579414</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>3</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>-6.7803457982579403</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>3</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>-5.5003457982579533</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>3</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>-5.4703457982579522</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>3</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>0.61043545804247756</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>3</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>-4.6484554042642685</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>3</v>
       </c>
@@ -17169,7 +17169,7 @@
         <v>-3.8084554042642722</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>3</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>-3.0684554042642702</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>3</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>-2.7484554042642699</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>3</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>-1.3484554042642714</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>-1.2484554042642699</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>3</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>-0.67845540426426965</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>3</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>-6.1419958430731185</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>3</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>-4.6319958430731276</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>3</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>-3.8719958430731225</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>3</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>-3.2719958430731282</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>3</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>-3.251995843073118</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>3</v>
       </c>
@@ -17719,7 +17719,7 @@
         <v>-5.3794512473373857</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>-5.3194512473373834</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>-5.1894512473373879</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>3</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>-4.8994512473373817</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>3</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>-4.5694512473373834</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>-3.4994512473373902</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>4</v>
       </c>
@@ -18019,7 +18019,7 @@
         <v>0.513210390359637</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>4</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>0.60321039035963686</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>4</v>
       </c>
@@ -18119,7 +18119,7 @@
         <v>0.69321039035963672</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>4</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>0.72321039035963608</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>4</v>
       </c>
@@ -18219,7 +18219,7 @@
         <v>0.80321039035963615</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>4</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>0.60866122427449199</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>4</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>0.91866122427449426</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>4</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>1.8186612242744928</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>4</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>2.3286612242744908</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>4</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>2.4586612242744934</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>4</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>1.1483224485489814</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>4</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>1.1483224485489814</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>4</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>2.7483224485489757</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>4</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>2.798322448548987</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>4</v>
       </c>
@@ -18719,7 +18719,7 @@
         <v>3.7683224485489859</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>4</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>1.929412608135749</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>4</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>2.0394126081357626</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>4</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>2.219412608135741</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>4</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>2.389412608135757</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>4</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>4.1894126081357399</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>4</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>-0.17250280370354609</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>4</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>0.53749719629645476</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>4</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>0.56749719629645412</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>4</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>0.86749719629645483</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>4</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>1.3474971962964535</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>4</v>
       </c>
@@ -19269,7 +19269,7 @@
         <v>0.64580844802176074</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>4</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>1.6658084480217639</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>4</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>1.7358084480217641</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>4</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>2.0758084480217605</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>4</v>
       </c>
@@ -19469,7 +19469,7 @@
         <v>2.1258084480217647</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>4</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>-0.10738310395647943</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>4</v>
       </c>
@@ -19569,7 +19569,7 @@
         <v>1.6226168960435245</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>4</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>1.6626168960435166</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>4</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>2.00261689604352</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>4</v>
       </c>
@@ -19719,7 +19719,7 @@
         <v>2.0726168960435274</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>4</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>2.4426168960435177</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>4</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>2.0879964087530425</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>4</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>2.4679964087530379</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>4</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>2.9079964087530357</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>4</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>3.4179964087530266</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>4</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>3.50799640875303</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>4</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>-0.28953565715793061</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>4</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>0.67046434284206846</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>4</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>0.76046434284206832</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>4</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>0.79046434284206946</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>4</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>0.28167296225104366</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>4</v>
       </c>
@@ -20319,7 +20319,7 @@
         <v>0.39167296225104309</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>4</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>0.4016729622510411</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>4</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>2.4116729622510462</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>4</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>2.5416729622510417</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>4</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>0.21434592450208356</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>4</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>2.0843459245020881</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>4</v>
       </c>
@@ -20619,7 +20619,7 @@
         <v>2.3143459245020921</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>4</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>2.9643459245020836</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>4</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>2.9943459245020847</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>4</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>1.5891857256765718</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>4</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>2.8791857256765638</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>4</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>3.1991857256765854</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>4</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>3.2191857256765672</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>4</v>
       </c>
@@ -20969,7 +20969,7 @@
         <v>3.8691857256765729</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>4</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>-0.29303514038752709</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>4</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>0.18696485961247156</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>4</v>
       </c>
@@ -21119,7 +21119,7 @@
         <v>0.54696485961247276</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>4</v>
       </c>
@@ -21169,7 +21169,7 @@
         <v>0.60696485961247149</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>4</v>
       </c>
@@ -21219,7 +21219,7 @@
         <v>0.98696485961247227</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>4</v>
       </c>
@@ -21269,7 +21269,7 @@
         <v>1.0069648596124718</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>4</v>
       </c>
@@ -21319,7 +21319,7 @@
         <v>0.2276750293326657</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>4</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>0.52767502933266286</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>4</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>0.66767502933266343</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>4</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>1.5976750293326631</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>4</v>
       </c>
@@ -21519,7 +21519,7 @@
         <v>1.7576750293326597</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>4</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>-0.13364994133468144</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>4</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>1.0663500586653214</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>4</v>
       </c>
@@ -21669,7 +21669,7 @@
         <v>1.3563500586653277</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>4</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>1.8263500586653265</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>4</v>
       </c>
@@ -21769,7 +21769,7 @@
         <v>2.3163500586653214</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>4</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>1.6228582490745111</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>4</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>2.0328582490745077</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>4</v>
       </c>
@@ -21919,7 +21919,7 @@
         <v>2.7128582490745146</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>4</v>
       </c>
@@ -21969,7 +21969,7 @@
         <v>2.9628582490745146</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>4</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>4.072858249074514</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>4</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>-0.53313268835004202</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>4</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>0.26686731164995869</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>4</v>
       </c>
@@ -22169,7 +22169,7 @@
         <v>0.33686731164995898</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>4</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>0.34686731164995876</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>4</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>0.42686731164995884</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>4</v>
       </c>
@@ -22319,7 +22319,7 @@
         <v>-2.8884180331105824</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>4</v>
       </c>
@@ -22369,7 +22369,7 @@
         <v>-0.37841803311057731</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>4</v>
       </c>
@@ -22419,7 +22419,7 @@
         <v>-0.33841803311057816</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>4</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>2.1581966889421267E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>4</v>
       </c>
@@ -22519,7 +22519,7 @@
         <v>1.3815819668894207</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>4</v>
       </c>
@@ -22569,7 +22569,7 @@
         <v>1.941581966889423</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>4</v>
       </c>
@@ -22619,7 +22619,7 @@
         <v>-3.5058360662211641</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>4</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>-2.4558360662211669</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>4</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>-1.6258360662211686</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>4</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>0.64416393377884162</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>4</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>1.7041639337788439</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>4</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>-4.5588959704024887</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>4</v>
       </c>
@@ -22919,7 +22919,7 @@
         <v>-4.2888959704024785</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>4</v>
       </c>
@@ -22969,7 +22969,7 @@
         <v>-2.0188959704024967</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>4</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>-0.67889597040249328</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>4</v>
       </c>
@@ -23069,7 +23069,7 @@
         <v>1.6911040295975113</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>4</v>
       </c>
@@ -23119,7 +23119,7 @@
         <v>-0.58005830156236016</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>4</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>-0.10005830156235973</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>4</v>
       </c>
@@ -23219,7 +23219,7 @@
         <v>0.22994169843764034</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>4</v>
       </c>
@@ -23269,7 +23269,7 @@
         <v>0.23994169843764013</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>4</v>
       </c>
@@ -23319,7 +23319,7 @@
         <v>0.25994169843764148</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>4</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>-2.6261204859598521</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>4</v>
       </c>
@@ -23419,7 +23419,7 @@
         <v>-1.6861204859598544</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>4</v>
       </c>
@@ -23469,7 +23469,7 @@
         <v>-0.55612048595985186</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>4</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>1.893879514040151</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>4</v>
       </c>
@@ -23569,7 +23569,7 @@
         <v>-3.4512409719197024</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>4</v>
       </c>
@@ -23619,7 +23619,7 @@
         <v>-2.5712409719197069</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>4</v>
       </c>
@@ -23669,7 +23669,7 @@
         <v>-1.7912409719197058</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>4</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>-0.82124097191970691</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>4</v>
       </c>
@@ -23769,7 +23769,7 @@
         <v>0.37875902808029593</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>4</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>-6.1407195868087712</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>4</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>-5.8407195868087598</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>4</v>
       </c>
@@ -23919,7 +23919,7 @@
         <v>-2.340719586808774</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>4</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>-0.77071958680876662</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>4</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>-0.24071958680876548</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>4</v>
       </c>
@@ -24069,7 +24069,7 @@
         <v>-3.4037983869550956</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>4</v>
       </c>
@@ -24119,7 +24119,7 @@
         <v>-0.12379838695509626</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>4</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>-7.8596246292521528</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>4</v>
       </c>
@@ -24219,7 +24219,7 @@
         <v>-3.2896246292521525</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>4</v>
       </c>
@@ -24269,7 +24269,7 @@
         <v>-1.6396246292521468</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>4</v>
       </c>
@@ -24319,7 +24319,7 @@
         <v>-18.928249258504295</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>4</v>
       </c>
@@ -24369,7 +24369,7 @@
         <v>-5.9082492585042985</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>4</v>
       </c>
@@ -24419,7 +24419,7 @@
         <v>-5.8789376636648853</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>4</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>-5.6589376636648865</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>4</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>-2.1999897146803846</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>4</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v>-0.75998971468038512</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>4</v>
       </c>
@@ -24619,7 +24619,7 @@
         <v>-0.5799897146803854</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>4</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>-0.54998971468038427</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>4</v>
       </c>
@@ -24719,7 +24719,7 @@
         <v>-0.24998971468038533</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>4</v>
       </c>
@@ -24769,7 +24769,7 @@
         <v>-0.18998971468038484</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>4</v>
       </c>
@@ -24819,7 +24819,7 @@
         <v>0.23001028531961509</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>4</v>
       </c>
@@ -24869,7 +24869,7 @@
         <v>-3.5443899401533017</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>4</v>
       </c>
@@ -24919,7 +24919,7 @@
         <v>-2.894389940153296</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>4</v>
       </c>
@@ -24969,7 +24969,7 @@
         <v>-1.9943899401532974</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>4</v>
       </c>
@@ -25019,7 +25019,7 @@
         <v>-1.5643899401532977</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>4</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>-0.91438994015329911</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>4</v>
       </c>
@@ -25119,7 +25119,7 @@
         <v>-0.91438994015329911</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>4</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v>-5.8977798803066008</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>4</v>
       </c>
@@ -25219,7 +25219,7 @@
         <v>-4.5177798803066054</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>4</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>-3.5577798803065974</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>4</v>
       </c>
@@ -25319,7 +25319,7 @@
         <v>-7.4691060445514807</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>4</v>
       </c>
@@ -25369,7 +25369,7 @@
         <v>-5.7391060445514768</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>4</v>
       </c>
@@ -25419,7 +25419,7 @@
         <v>-5.3591060445514813</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>5</v>
       </c>
@@ -25469,7 +25469,7 @@
         <v>-0.47050484145226967</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>5</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>9.4951585477307532E-3</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>5</v>
       </c>
@@ -25569,7 +25569,7 @@
         <v>0.29949515854773168</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>5</v>
       </c>
@@ -25619,7 +25619,7 @@
         <v>0.72949515854773139</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>5</v>
       </c>
@@ -25669,7 +25669,7 @@
         <v>0.90949515854773111</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>5</v>
       </c>
@@ -25719,7 +25719,7 @@
         <v>0.96008506521496884</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>5</v>
       </c>
@@ -25769,7 +25769,7 @@
         <v>1.8900850652149686</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>5</v>
       </c>
@@ -25819,7 +25819,7 @@
         <v>2.1100850652149674</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>5</v>
       </c>
@@ -25869,7 +25869,7 @@
         <v>2.1800850652149677</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>5</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>2.49008506521497</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>5</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>2.1611701304299373</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>5</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>2.2311701304299305</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>5</v>
       </c>
@@ -26069,7 +26069,7 @@
         <v>2.7211701304299396</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>5</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>3.7111701304299345</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>5</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v>3.7311701304299305</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>5</v>
       </c>
@@ -26219,7 +26219,7 @@
         <v>5.2522551956448922</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>5</v>
       </c>
@@ -26269,7 +26269,7 @@
         <v>5.3122551956448945</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>5</v>
       </c>
@@ -26319,7 +26319,7 @@
         <v>5.5822551956449047</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>5</v>
       </c>
@@ -26369,7 +26369,7 @@
         <v>5.932255195644899</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>5</v>
       </c>
@@ -26419,7 +26419,7 @@
         <v>5.9922551956449013</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>5</v>
       </c>
@@ -26469,7 +26469,7 @@
         <v>-0.31164798970208984</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>5</v>
       </c>
@@ -26519,7 +26519,7 @@
         <v>-0.24164798970208956</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>5</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>-5.1647989702090058E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>5</v>
       </c>
@@ -26619,7 +26619,7 @@
         <v>0.99835201029791065</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>5</v>
       </c>
@@ -26669,7 +26669,7 @@
         <v>0.99835201029791065</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>5</v>
       </c>
@@ -26719,7 +26719,7 @@
         <v>0.73665562046551258</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>5</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>1.6266556204655132</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>5</v>
       </c>
@@ -26819,7 +26819,7 @@
         <v>1.8066556204655129</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>5</v>
       </c>
@@ -26869,7 +26869,7 @@
         <v>2.4966556204655106</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>5</v>
       </c>
@@ -26919,7 +26919,7 @@
         <v>2.7866556204655097</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>5</v>
       </c>
@@ -26969,7 +26969,7 @@
         <v>1.8143112409310191</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>5</v>
       </c>
@@ -27019,7 +27019,7 @@
         <v>2.5843112409310152</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>5</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>3.4243112409310186</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>5</v>
       </c>
@@ -27119,7 +27119,7 @@
         <v>4.1843112409310237</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>5</v>
       </c>
@@ -27169,7 +27169,7 @@
         <v>4.4143112409310135</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>5</v>
       </c>
@@ -27219,7 +27219,7 @@
         <v>3.0608237131467035</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>5</v>
       </c>
@@ -27269,7 +27269,7 @@
         <v>3.9308237131466797</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>5</v>
       </c>
@@ -27319,7 +27319,7 @@
         <v>4.0008237131467013</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>5</v>
       </c>
@@ -27369,7 +27369,7 @@
         <v>5.230823713146691</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>5</v>
       </c>
@@ -27419,7 +27419,7 @@
         <v>5.2508237131467013</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>5</v>
       </c>
@@ -27469,7 +27469,7 @@
         <v>-0.50516943835894779</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>5</v>
       </c>
@@ -27519,7 +27519,7 @@
         <v>-0.45516943835894885</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>5</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>0.22483056164105264</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>5</v>
       </c>
@@ -27619,7 +27619,7 @@
         <v>0.79483056164105115</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>5</v>
       </c>
@@ -27669,7 +27669,7 @@
         <v>0.84483056164105186</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>5</v>
       </c>
@@ -27719,7 +27719,7 @@
         <v>0.52350405624595453</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>5</v>
       </c>
@@ -27769,7 +27769,7 @@
         <v>0.59350405624595481</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>5</v>
       </c>
@@ -27819,7 +27819,7 @@
         <v>1.9035040562459571</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>5</v>
       </c>
@@ -27869,7 +27869,7 @@
         <v>2.1635040562459551</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>5</v>
       </c>
@@ -27919,7 +27919,7 @@
         <v>2.5535040562459557</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>5</v>
       </c>
@@ -27969,7 +27969,7 @@
         <v>-0.33199188750808162</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>5</v>
       </c>
@@ -28019,7 +28019,7 @@
         <v>1.5180081124919127</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>5</v>
       </c>
@@ -28069,7 +28069,7 @@
         <v>1.578008112491915</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>5</v>
       </c>
@@ -28119,7 +28119,7 @@
         <v>2.1880081124919144</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>5</v>
       </c>
@@ -28169,7 +28169,7 @@
         <v>3.3380081124919059</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>5</v>
       </c>
@@ -28219,7 +28219,7 @@
         <v>1.0325121687378669</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>5</v>
       </c>
@@ -28269,7 +28269,7 @@
         <v>3.3325121687378783</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>5</v>
       </c>
@@ -28319,7 +28319,7 @@
         <v>3.4625121687378737</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>5</v>
       </c>
@@ -28369,7 +28369,7 @@
         <v>5.4125121687378623</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>5</v>
       </c>
@@ -28419,7 +28419,7 @@
         <v>5.4825121687378555</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>5</v>
       </c>
@@ -28469,7 +28469,7 @@
         <v>-0.45690290949772283</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>5</v>
       </c>
@@ -28519,7 +28519,7 @@
         <v>-0.36690290949772297</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>5</v>
       </c>
@@ -28569,7 +28569,7 @@
         <v>-0.31690290949772226</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>5</v>
       </c>
@@ -28619,7 +28619,7 @@
         <v>0.57309709050227653</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>5</v>
       </c>
@@ -28669,7 +28669,7 @@
         <v>0.74309709050227646</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>5</v>
       </c>
@@ -28719,7 +28719,7 @@
         <v>0.77830364282962705</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>5</v>
       </c>
@@ -28769,7 +28769,7 @@
         <v>1.0983036428296273</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>5</v>
       </c>
@@ -28819,7 +28819,7 @@
         <v>1.3583036428296325</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>5</v>
       </c>
@@ -28869,7 +28869,7 @@
         <v>1.7283036428296299</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>5</v>
       </c>
@@ -28919,7 +28919,7 @@
         <v>1.9483036428296288</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>5</v>
       </c>
@@ -28969,7 +28969,7 @@
         <v>1.4076072856592532</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>5</v>
       </c>
@@ -29019,7 +29019,7 @@
         <v>1.7576072856592617</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>5</v>
       </c>
@@ -29069,7 +29069,7 @@
         <v>2.1476072856592623</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>5</v>
       </c>
@@ -29119,7 +29119,7 @@
         <v>2.2176072856592555</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>5</v>
       </c>
@@ -29169,7 +29169,7 @@
         <v>3.3876072856592572</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>5</v>
       </c>
@@ -29219,7 +29219,7 @@
         <v>2.4251774573501166</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>5</v>
       </c>
@@ -29269,7 +29269,7 @@
         <v>2.7751774573501393</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>5</v>
       </c>
@@ -29319,7 +29319,7 @@
         <v>3.2351774573501189</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>5</v>
       </c>
@@ -29369,7 +29369,7 @@
         <v>3.3851774573501245</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>5</v>
       </c>
@@ -29419,7 +29419,7 @@
         <v>4.7851774573501302</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>5</v>
       </c>
@@ -29469,7 +29469,7 @@
         <v>-0.68446382356603053</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>5</v>
       </c>
@@ -29519,7 +29519,7 @@
         <v>-0.50446382356603081</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>5</v>
       </c>
@@ -29569,7 +29569,7 @@
         <v>-0.25446382356603081</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>5</v>
       </c>
@@ -29619,7 +29619,7 @@
         <v>8.5536176433969047E-2</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>5</v>
       </c>
@@ -29669,7 +29669,7 @@
         <v>0.33553617643396905</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>5</v>
       </c>
@@ -29719,7 +29719,7 @@
         <v>0.49553617643396919</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>5</v>
       </c>
@@ -29769,7 +29769,7 @@
         <v>-2.4650737091905199</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>5</v>
       </c>
@@ -29819,7 +29819,7 @@
         <v>-1.4150737091905228</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>5</v>
       </c>
@@ -29869,7 +29869,7 @@
         <v>0.3149262908094741</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>5</v>
       </c>
@@ -29919,7 +29919,7 @@
         <v>1.1149262908094784</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>5</v>
       </c>
@@ -29951,7 +29951,7 @@
         <v>80.685255226234972</v>
       </c>
       <c r="J578">
-        <f t="shared" ref="J578:J641" si="55">G578/I578</f>
+        <f t="shared" ref="J578:J634" si="55">G578/I578</f>
         <v>0.50951068921738996</v>
       </c>
       <c r="K578">
@@ -29965,11 +29965,11 @@
         <v>42.654926290809478</v>
       </c>
       <c r="N578">
-        <f t="shared" ref="N578:N641" si="56">M578-G578</f>
+        <f t="shared" ref="N578:N634" si="56">M578-G578</f>
         <v>1.5449262908094781</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>5</v>
       </c>
@@ -30019,7 +30019,7 @@
         <v>-2.5491474183810539</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>5</v>
       </c>
@@ -30069,7 +30069,7 @@
         <v>-2.0191474183810527</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>5</v>
       </c>
@@ -30119,7 +30119,7 @@
         <v>-1.4691474183810413</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>5</v>
       </c>
@@ -30169,7 +30169,7 @@
         <v>-0.99914741838104248</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>5</v>
       </c>
@@ -30219,7 +30219,7 @@
         <v>-0.98914741838105158</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>5</v>
       </c>
@@ -30269,7 +30269,7 @@
         <v>-5.3532211275716008</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>5</v>
       </c>
@@ -30319,7 +30319,7 @@
         <v>-5.1432211275715929</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>5</v>
       </c>
@@ -30369,7 +30369,7 @@
         <v>-1.7432211275715872</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>5</v>
       </c>
@@ -30419,7 +30419,7 @@
         <v>0.66677887242840939</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>5</v>
       </c>
@@ -30469,7 +30469,7 @@
         <v>2.2867788724283997</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>5</v>
       </c>
@@ -30519,7 +30519,7 @@
         <v>-0.66795032670941445</v>
       </c>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>5</v>
       </c>
@@ -30569,7 +30569,7 @@
         <v>-4.7950326709415236E-2</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>5</v>
       </c>
@@ -30619,7 +30619,7 @@
         <v>0.27204967329058505</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>5</v>
       </c>
@@ -30669,7 +30669,7 @@
         <v>0.49204967329058569</v>
       </c>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>5</v>
       </c>
@@ -30719,7 +30719,7 @@
         <v>-2.0355332186206709</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>5</v>
       </c>
@@ -30769,7 +30769,7 @@
         <v>-0.3355332186206752</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>5</v>
       </c>
@@ -30819,7 +30819,7 @@
         <v>0.29446678137932736</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>5</v>
       </c>
@@ -30869,7 +30869,7 @@
         <v>0.33446678137932651</v>
       </c>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>5</v>
       </c>
@@ -30919,7 +30919,7 @@
         <v>0.61446678137932764</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>5</v>
       </c>
@@ -30969,7 +30969,7 @@
         <v>-2.6100664372413434</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>5</v>
       </c>
@@ -31019,7 +31019,7 @@
         <v>-2.5300664372413451</v>
       </c>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>5</v>
       </c>
@@ -31069,7 +31069,7 @@
         <v>-0.17006643724134562</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>5</v>
       </c>
@@ -31119,7 +31119,7 @@
         <v>-8.0066437241356425E-2</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>5</v>
       </c>
@@ -31169,7 +31169,7 @@
         <v>5.9933562758644143E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>5</v>
       </c>
@@ -31219,7 +31219,7 @@
         <v>-5.7680861590054349</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>5</v>
       </c>
@@ -31269,7 +31269,7 @@
         <v>-4.2480861590054246</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>5</v>
       </c>
@@ -31319,7 +31319,7 @@
         <v>-3.8780861590054201</v>
       </c>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>5</v>
       </c>
@@ -31369,7 +31369,7 @@
         <v>-1.8480861590054189</v>
       </c>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>5</v>
       </c>
@@ -31419,7 +31419,7 @@
         <v>0.65191384099458105</v>
       </c>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>5</v>
       </c>
@@ -31469,7 +31469,7 @@
         <v>-3.2144325695931784</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>5</v>
       </c>
@@ -31519,7 +31519,7 @@
         <v>-0.57443256959317957</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>5</v>
       </c>
@@ -31569,7 +31569,7 @@
         <v>-8.7727955424425588</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>5</v>
       </c>
@@ -31619,7 +31619,7 @@
         <v>-1.2527955424425627</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>5</v>
       </c>
@@ -31669,7 +31669,7 @@
         <v>-16.63459108488513</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>5</v>
       </c>
@@ -31719,7 +31719,7 @@
         <v>-5.064591084885123</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>5</v>
       </c>
@@ -31769,7 +31769,7 @@
         <v>-1.4607815488664375</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>5</v>
       </c>
@@ -31819,7 +31819,7 @@
         <v>-1.2307815488664371</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>5</v>
       </c>
@@ -31869,7 +31869,7 @@
         <v>-1.200781548866436</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>5</v>
       </c>
@@ -31919,7 +31919,7 @@
         <v>-1.1207815488664359</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>5</v>
       </c>
@@ -31969,7 +31969,7 @@
         <v>-1.0907815488664365</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>5</v>
       </c>
@@ -32019,7 +32019,7 @@
         <v>-0.9707815488664373</v>
       </c>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>5</v>
       </c>
@@ -32069,7 +32069,7 @@
         <v>-7.078154886643695E-2</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>5</v>
       </c>
@@ -32119,7 +32119,7 @@
         <v>2.9218451133562695E-2</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>5</v>
       </c>
@@ -32169,7 +32169,7 @@
         <v>7.9218451133563406E-2</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>5</v>
       </c>
@@ -32219,7 +32219,7 @@
         <v>0.10921845113356277</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>5</v>
       </c>
@@ -32269,7 +32269,7 @@
         <v>-2.9918424802623278</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>5</v>
       </c>
@@ -32319,7 +32319,7 @@
         <v>-2.3018424802623301</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>5</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>-1.6918424802623306</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>5</v>
       </c>
@@ -32419,7 +32419,7 @@
         <v>-1.3518424802623272</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>5</v>
       </c>
@@ -32469,7 +32469,7 @@
         <v>-1.3118424802623281</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>5</v>
       </c>
@@ -32519,7 +32519,7 @@
         <v>-1.2418424802623278</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>5</v>
       </c>
@@ -32569,7 +32569,7 @@
         <v>-1.2018424802623286</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>5</v>
       </c>
@@ -32619,7 +32619,7 @@
         <v>-5.1626849605246576</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>5</v>
       </c>
@@ -32669,7 +32669,7 @@
         <v>-4.3926849605246616</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>5</v>
       </c>
@@ -32719,7 +32719,7 @@
         <v>-3.5926849605246645</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>5</v>
       </c>
@@ -32769,7 +32769,7 @@
         <v>-3.5526849605246582</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N635">
         <f>SQRT(SUMSQ(N2:N634)/COUNT(N2:N634))</f>
         <v>3.2188010230822512</v>
